--- a/data/tenders.xlsx
+++ b/data/tenders.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,243 +451,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Услуги</t>
+          <t>Услуги по перезарядке и ремонту огнетушителей, согласно технического задания (приложение 1 к государственному контракту)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01:59:36</t>
+          <t>01:27:03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ФКУ "ЦОКР"</t>
+          <t>ФКУ ИК-6 УФСИН РОССИИ ПО Г. САНКТ-ПЕТЕРБУРГУ И ЛЕНИНГРАДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>231 600,00 руб.</t>
+          <t>66 183,43 руб.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1386994/order-info</t>
+          <t>https://agregatoreat.ru/purchase/1392493/order-info</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>перезарядка огнетушителей, 7 усл. ед</t>
+          <t>Заправка огнетушителей, 4 шт</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01:58:52</t>
+          <t>01:14:23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Филиал - 3 отряд ФКУ "ГУ "ВО Минфина России"</t>
+          <t>ОТДЕЛ МВД РОССИИ ПО ИГЛИНСКОМУ РАЙОНУ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 000,00 руб.</t>
+          <t>840,00 руб.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1386846/order-info</t>
+          <t>https://agregatoreat.ru/purchase/1392389/order-info</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Услуги по техническому обслуживанию,зарядке и ремонту огнетушителей, 40 усл. ед</t>
+          <t>Переосвидетельствование и перезарядка огнетушителей., 30 шт</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01:58:52</t>
+          <t>23:01:43</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ОМВД РОССИИ ПО СЛЮДЯНСКОМУ РАЙОНУ</t>
+          <t>ОМВД РОССИИ ПО КАМЫЗЯКСКОМУ РАЙОНУ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6 000,00 руб.</t>
+          <t>3 600,00 руб.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1386622/order-info</t>
+          <t>https://agregatoreat.ru/purchase/1392302/order-info</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Приобретение продукции для обеспечения пожарной безопасности</t>
+          <t>Перезарядка огнетушителя ОП-2, 4 шт</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01:58:03</t>
+          <t>22:18:04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ФКУ ИК-4 УФСИН РОССИИ ПО КУРГАНСКОЙ ОБЛАСТИ</t>
+          <t>ОТДЕЛ ГФС РОССИИ В Г. ВЕЛИКОМ НОВГОРОДЕ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19 250,00 руб.</t>
+          <t>1 900,00 руб.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1386487/order-info</t>
+          <t>https://agregatoreat.ru/purchase/1392001/order-info</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Техническое обслуживание огнетушителей, 1 шт</t>
+          <t>Одежда и обувь, Автомобильные товары и запчасти</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23:57:58</t>
+          <t>20:42:01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ГУ "ОТДЕЛ МВД РОССИИ ПО ЯКШУР-БОДЬИНСКОМУ РАЙОНУ"</t>
+          <t>ФКУКИИ "КУЛЬТУРНЫЙ ЦЕНТР МВД РОССИИ"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3 600,00 руб.</t>
+          <t>7 500,00 руб.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1386448/order-info</t>
+          <t>https://agregatoreat.ru/purchase/1391454/order-info</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Услуги по техническому обслуживанию огнетушителей,(согласно приложенному техническому заданию)- 16 шт</t>
+          <t>Оказание услуг по вывозу и утилизации огнетушителей, 1 усл. ед</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01:57:41</t>
+          <t>17:19:56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ФГКУ КОМБИНАТ "НОВЫЙ ПУТЬ" РОСРЕЗЕРВА</t>
+          <t>УТ МВД РОССИИ ПО ДФО</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4 780,00 руб.</t>
+          <t>29 200,00 руб.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1386332/order-info</t>
+          <t>https://agregatoreat.ru/purchase/1389772/order-info</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ПЕРЕЗАРЯДКА ОГНЕТУШИТЕЛЕЙ, 1 шт</t>
+          <t>Выполнение работ по техническому обслуживанию углекислотных огнетушителей, 300 шт</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01:57:12</t>
+          <t>01:39:34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ОМВД РОССИИ ПО КАРАЧЕВСКОМУ РАЙОНУ</t>
+          <t>ФСО РОССИИ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7 750,00 руб.</t>
+          <t>195 000,00 руб.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1385769/order-info</t>
+          <t>https://agregatoreat.ru/purchase/1388261/order-info</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Оказание услуг по заправке огнетушителей ОУ-5</t>
+          <t>Техническое обслуживание и перезарядка огнетушителей, 132 шт</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01:56:48</t>
+          <t>01:01:09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ФГКУ "ЦЕНТРРЕЗЕРВ"</t>
+          <t>ФГКУ КОМБИНАТ "СИГНАЛ" ИМ. А.А. ГРИГОРЬЕВА РОСРЕЗЕРВА</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7 995,00 руб.</t>
+          <t>95 850,00 руб.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1383708/order-info</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>На поставку огнетушителей</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>01:56:31</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО ТЮМЕНСКОЙ ОБЛАСТИ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>100 000,00 руб.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://agregatoreat.ru/purchase/1382940/order-info</t>
+          <t>https://agregatoreat.ru/purchase/1388110/order-info</t>
         </is>
       </c>
     </row>

--- a/data/tenders.xlsx
+++ b/data/tenders.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,25 +424,30 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Наименование</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Время до окончания подачи предложений</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Заказчик</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Стартовая цена</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Информация о закупке</t>
         </is>
@@ -451,216 +456,4960 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Услуги по перезарядке и ремонту огнетушителей, согласно технического задания (приложение 1 к государственному контракту)</t>
+          <t>100070408120000171</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01:27:03</t>
+          <t>Комплектующие для систем ОС и АПС согласно спецификации</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ФКУ ИК-6 УФСИН РОССИИ ПО Г. САНКТ-ПЕТЕРБУРГУ И ЛЕНИНГРАДСКОЙ ОБЛАСТИ</t>
+          <t>01:44:46</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66 183,43 руб.</t>
+          <t>ФГКУ КОМБИНАТ "МОНТАЖ" РОСРЕЗЕРВА</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1392493/order-info</t>
+          <t>213 286,60 руб.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414940/order-info</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Заправка огнетушителей, 4 шт</t>
+          <t>100074699120000842</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01:14:23</t>
+          <t>Поставка медицинских препаратов</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ОТДЕЛ МВД РОССИИ ПО ИГЛИНСКОМУ РАЙОНУ</t>
+          <t>00:25:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>840,00 руб.</t>
+          <t>СОК ФСО РОССИИ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1392389/order-info</t>
+          <t>8 932,48 руб.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1412875/order-info</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Переосвидетельствование и перезарядка огнетушителей., 30 шт</t>
+          <t>100106499120000099</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23:01:43</t>
+          <t>Поставить для обеспечения нужд структурных подразделений Главного управления МЧС России по Кировской области электротоваров (далее – Товар) в соответствии со спецификацией к настоящему контракту</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ОМВД РОССИИ ПО КАМЫЗЯКСКОМУ РАЙОНУ</t>
+          <t>01:33:23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3 600,00 руб.</t>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО КИРОВСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1392302/order-info</t>
+          <t>7 150,00 руб.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417984/order-info</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Перезарядка огнетушителя ОП-2, 4 шт</t>
+          <t>100059698120000479</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22:18:04</t>
+          <t>Закупка микропроцессора ID-961</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ОТДЕЛ ГФС РОССИИ В Г. ВЕЛИКОМ НОВГОРОДЕ</t>
+          <t>00:36:35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 900,00 руб.</t>
+          <t>ФКУ "В/Ч 52583"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1392001/order-info</t>
+          <t>6 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417510/order-info</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Одежда и обувь, Автомобильные товары и запчасти</t>
+          <t>100077784120000042</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20:42:01</t>
+          <t>Обучение водителей транспортных средств категории «Д» оборудованных для подачи спец. световых и звуковых сигналов, 8 шт</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ФКУКИИ "КУЛЬТУРНЫЙ ЦЕНТР МВД РОССИИ"</t>
+          <t>01:51:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7 500,00 руб.</t>
+          <t>ФКУ УК ГУФСИН РОССИИ ПО НИЖЕГОРОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1391454/order-info</t>
+          <t>11 200,00 руб.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418118/order-info</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Оказание услуг по вывозу и утилизации огнетушителей, 1 усл. ед</t>
+          <t>100298217120000022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17:19:56</t>
+          <t>Инженерное оборудование</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>УТ МВД РОССИИ ПО ДФО</t>
+          <t>01:43:36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29 200,00 руб.</t>
+          <t>МО МВД РОССИИ "ТРУБЧЕВСКИЙ"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1389772/order-info</t>
+          <t>15 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418058/order-info</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Выполнение работ по техническому обслуживанию углекислотных огнетушителей, 300 шт</t>
+          <t>100025789120000027</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01:39:34</t>
+          <t>Ремонт котла универсального пищеварочного электрического КУПЭ-250НГМ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ФСО РОССИИ</t>
+          <t>23:42:28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>195 000,00 руб.</t>
+          <t>ФКУ ИК-3 УФСИН РОССИИ ПО УЛЬЯНОВСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://agregatoreat.ru/purchase/1388261/order-info</t>
+          <t>13 190,00 руб.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418042/order-info</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Техническое обслуживание и перезарядка огнетушителей, 132 шт</t>
+          <t>100294402120000020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01:01:09</t>
+          <t>диагностика системы управления насосного оборудования</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>01:34:24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ФКУ "ЦВСИГ "ДОН" МВД РОССИИ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5 600,00 руб.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417985/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>100114914120000020</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Услуги по проведение контрольных испытаний газопровода и газового оборудования с выдачей технической документации и предъявлением строительному контролю</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01:22:51</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ОТДЕЛЕНИЕ МВД РОССИИ ПО АЛЬКЕЕВСКОМУ РАЙОНУ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>110 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417890/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>100239435120000105</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Услуги по обслуживанию инженерных сетей на внутридомовом оборудовании нежилого помещения (по месту нахождения подразделения УФССП Россиипо Оренбургской области, в г.Орск)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01:18:28</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>УФССП РОССИИ ПО ОРЕНБУРГСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23 851,44 руб.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417867/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>100879860120000052</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Инженерное оборудование, Автомобильные товары и запчасти</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01:16:46</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-2 УФСИН РОССИИ ПО ИВАНОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30 590,00 руб.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417804/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>100311282120000048</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Оборудование автоматического узла регулирования температуры системы ГВС</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01:08:51</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ФГКУ "УВО ВНГ РОССИИ ПО УЛЬЯНОВСКОЙ ОБЛАСТИ"</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>106 700,09 руб.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417759/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>100153007120000127</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Техническое обслуживание газопроводов сети газопотребления и газоиспользующего оборудования</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01:02:16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>АЗОВО-ЧЕРНОМОРСКОЕ ТУ РОСРЫБОЛОВСТВА</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2 184,00 руб.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417723/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>100060252120000110</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Инженерное оборудование, Строительство и ремонт</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:51:31</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-8 УФСИН РОССИИ ПО ВОРОНЕЖСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>16 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417653/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>100006771120000054</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ремонт холодильного оборудования, 1 шт</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>00:48:10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-10 УФСИН РОССИИ ПО ВЛАДИМИРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417606/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>200740868120000044</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Программное обеспечение, Компьютерное оборудование</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>00:38:14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>АО "106 ЭОМЗ"</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59 655,00 руб.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417516/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>100059397120000062</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Инженерное оборудование, Программное обеспечение, Компьютерное оборудование, Бытовая техника и электроника, Книги и прочая печатная продукция</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>00:34:34</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-17 УФСИН РОССИИ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>50 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417493/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>100266143120000092</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Канцелярские товары, Банковское оборудование и ККМ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>00:25:29</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>МВД ПО РЕСПУБЛИКЕ КОМИ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7 736,88 руб.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417426/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>100301971120000021</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Оказание услуги по утилизации списанного имущества</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>00:23:52</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ФКУ "ГБ МСЭ ПО МУРМАНСКОЙ ОБЛАСТИ" МИНТРУДА РОССИИ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59 727,80 руб.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417408/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>100160872120000193</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Поставка компьютерного оборудования</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>22:08:10</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ФГБНУ НЦН</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>207 615,00 руб.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417283/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>100118663120000090</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Инженерное оборудование, Строительство и ремонт</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ФКУ СИЗО-1 УФСИН РОССИИ ПО КУРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>4 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417226/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>100121165120000062</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Оборудование специального назначения прочее, не включенное в другие группировки, 1 шт</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21:07:13</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ФГКУ "ЦИТО ВОЙСК НАЦИОНАЛЬНОЙ ГВАРДИИ"</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1416912/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>200743854120000037</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Инженерное оборудование, Компьютерное оборудование</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20:19:32</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ООО "ТУЛАОБОРОНСТРОЙ"</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1416551/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>200815243120000072</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Инженерное оборудование, Автомобильные товары и запчасти, Строительство и ремонт</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19:34:35</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ООО "ВР-РЕСУРС"</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>38 240,50 руб.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1416112/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>100319839120000209</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Поставка телекоммуникационного оборудования (в соответствии с описанием объекта закупки)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18:49:54</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>УРАЛЬСКОЕ ТАМОЖЕННОЕ УПРАВЛЕНИЕ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415731/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>100078831120000255</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Оказание услуг по монтажу и подключению дизель-генераторной установки с проведением тепловизионного обследования электрооборудования ВРУ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>01:50:56</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ФКУ "ЦХИСО ГУ МВД РОССИИ ПО САРАТОВСКОЙ ОБЛАСТИ"</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>196 933,51 руб.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415704/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>100181955120000110</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Оборудование системы контроля управления доступом в соответствии с проектом государственного контракта</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>01:03:20</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ФКОУ ВО ПЕРМСКИЙ ИНСТИТУТ ФСИН РОССИИ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>13 793,04 руб.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415692/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>100060252120000109</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Инженерное оборудование, Автомобильные товары и запчасти, Строительство и ремонт, Компьютерное оборудование, Бытовая техника и электроника, Книги и прочая печатная продукция</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>01:54:18</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-8 УФСИН РОССИИ ПО ВОРОНЕЖСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415030/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>200741105120000070</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Поставка комплектующих к вентиляционному оборудованию</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>01:35:42</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>АО "УРАЛТРАНСМАШ"</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>492 792,00 руб.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414821/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>100101913120000044</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>оборудование для продовольственной службы</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>01:22:47</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-6 ГУФСИН РОССИИ ПО ПРИМОРСКОМУ КРАЮ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1 250,00 руб.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414732/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>100082600120000147</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Монтаж оборудования, 1 шт</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01:19:47</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ФГКУ "ЦВК ПО МТО РОСГВАРДИИ"</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>57 373,34 руб.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414694/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>200808381120000254</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Закупка на право заключения договора поставки медицинского оборудования для СП "Сосновый" (см. Приложение № 1,2 к Договору)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01:16:42</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>АО "ИМЗ-2"</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>437 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414273/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>100128725120000075</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Оказание услуг по утилизации вычислительной, офисной техники и прочего оборудования</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>01:10:10</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ЕНИСЕЙСКОЕ УПРАВЛЕНИЕ РОСКОМНАДЗОРА</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>17 416,67 руб.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414034/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>100293207120000033</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Поставка инженерного оборудования</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>02:03:04</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО АРХАНГЕЛЬСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38 931,41 руб.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413324/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>100003491120000188</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Компьютерное оборудование (расходные материалы для печатающих устройств)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22:52:58</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ГЦИТ ВОЙСК НАЦИОНАЛЬНОЙ ГВАРДИИ</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>178 049,80 руб.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413319/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>100250013120000047</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ПОДГОТОВКА ВОДИТЕЛЕЙ Т.С. кат "В", "D", ОБОРУДОВАННЫХ УСТРОЙСТВАМИ ДЛЯ ПОДАЧИ СПЕЦСИГНАЛОВ, 1 шт</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>00:48:07</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>МО МВД РОССИИ "ЗУЕВСКИЙ"</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>770,00 руб.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413254/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>200741483120000184</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Компьютерное оборудование, Бытовая техника и электроника, Книги и прочая печатная продукция</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>00:38:11</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>АО «НЦВ МИЛЬ И КАМОВ»</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>493 400,00 руб.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413016/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>100077710120000348</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Компьютерное оборудование, Бытовая техника и электроника, Книги и прочая печатная продукция</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>00:34:31</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>ФГКУ КОМБИНАТ "СИГНАЛ" ИМ. А.А. ГРИГОРЬЕВА РОСРЕЗЕРВА</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>95 850,00 руб.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://agregatoreat.ru/purchase/1388110/order-info</t>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>56 029,24 руб.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1412998/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>200734981120000024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Инженерное оборудование, Строительство и ремонт, Компьютерное оборудование, Товары для дома и дачи</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>00:15:50</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>АО "ЛМЗ ИМ. К. ЛИБКНЕХТА"</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1412827/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>100257416120000251</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>выполнение работ по ремонту автомобиля марки TOYOTA, для нужд ФКУ «ЦХиСО УМВД России по Пензенской области», за счет средств федерального бюджета (в целях выполнения государственного оборонного заказа), 1 усл. ед ( В соответствии с Техническим заданием Приложения 1 к проекту ГК)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>01:44:49</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ФКУ "ЦХИСО УМВД РОССИИ ПО ПЕНЗЕНСКОЙ ОБЛАСТИ"</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>19 560,67 руб.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418034/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>100226096120000093</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Поставка строительных материалов в рамках капитального ремонта зданий ФКУ ЛИУ-34 УФСИН России по Республике Хакасия</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>00:58:36</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ФКУ ЛИУ-34 УФСИН РОССИИ ПО РЕСПУБЛИКЕ ХАКАСИЯ</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94 586,38 руб.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417674/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>100112278120000059</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Изготовление и поставка специальной бланочной продукции со степенями защиты для нужд УГИБДД ГУ МВД России по Краснодарскому краю</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>22:51:34</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИИ ПО КРАСНОДАРСКОМУ КРАЮ</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>492 328,00 руб.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415141/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>100171312120000072</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Приобретение строительных материалов</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:35:52</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ТЮМЕНЬСТАТ</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>17 289,00 руб.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414523/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>100158189120000363</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Краска водоэмульсионная, 10 шт</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>00:07:29</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>"САНАТОРИЙ "ПОБЕДА" ФТС РОССИИ"</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>12 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417262/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>100066285120000049</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Жидкость для генераторов дыма и тумана, 2 шт</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>01:31:16</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ФГКУ "СПЕЦИАЛЬНОЕ УПРАВЛЕНИЕ ФПС № 18 МЧС РОССИИ"</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1 595,90 руб.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417946/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>100046867120000035</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Генератор автомобильный (Форд Фокус III), 1 шт</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>17:12:21</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>УФНС РОССИИ ПО ЯМАЛО-НЕНЕЦКОМУ АВТОНОМНОМУ ОКРУГУ</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15 100,00 руб.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414743/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>100106499120000098</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Поставить товпар согласно спецификации</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>01:08:31</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО КИРОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82 086,24 руб.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417778/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>100025789120000026</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Услуги, Автомобильные товары и запчасти</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>21:59:38</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-3 УФСИН РОССИИ ПО УЛЬЯНОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15 891,02 руб.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417243/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>100144083120000196</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Поставка регуляторов и контроллера длягазовых котельных</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>23:03:52</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>ВОЙСКОВАЯ ЧАСТЬ 66631</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>311 434,20 руб.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417727/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>100158714120000123</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Работы по капитальному ремонту и реставрации в отношении недвижимого имущества по адресу г. Санкт-Петербург, ул. Глинки, д. 2, литер А, литер Б, литер К по объекту: «Капитальный ремонт и реставрация недвижимого имущества» по адресу г. Санкт-Петербург, ул. Глинки, д.2, литер А, литер Б, литер К. (Устройство полов до финишного слоя, устройство перегородок)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>00:45:17</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>ФГКУ "СЗД"</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>379 555,10 руб.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417571/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>100266435120000034</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ремонтные работ по устройству водостока кровли входной группы</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>00:33:02</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ФКУ "ГБ МСЭ ПО ВОЛОГОДСКОЙ ОБЛАСТИ" МИНТРУДА РОССИИ</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>55 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417469/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>100149349120000198</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Многофункциональное устройство, 4 шт</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>00:11:46</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>УФСИН РОССИИ ПО ВЛАДИМИРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417303/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>100291683120000046</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Пуско-зарядное устройство, 2 шт</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>00:09:55</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ФГКУ "СПЕЦИАЛЬНОЕ УПРАВЛЕНИЕ ФПС № 20 МЧС РОССИИ"</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10 300,00 руб.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417287/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>100305165120000143</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>поставка устройств для подачи специальных световых и звуковых сигналов для нужд ГУ МВД России по Новосибирской области</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>19:21:30</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИИ ПО НОВОСИБИРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>63 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415921/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>100305165120000141</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>поставка комплектующих (картридеров) для ремонта электронной техники для нужд ГУ МВД России по Новосибирской области в рамках государственного оборонного заказа вне рамок государственной программы вооружения</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>14:51:34</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИИ ПО НОВОСИБИРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>43 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414136/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>200814045120000651</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Поставка сменного излучателя 130W для УФ-дезинфекционных устройств Bewades P 130W130/17P и Bewades P 390W130/22P, 7 шт</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>12:36:59</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>АО "НПО "МИКРОГЕН"</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>416 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413816/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>100087176120000135</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>выполнение работ по устройству тактильной плитки для благоустройства территории на объекте капитального строительства «Краевой дворец единоборств «Самбо» в г. Хабаровске»</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>11:27:49</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>КГКУ "СЛУЖБА ЗАКАЗЧИКА МИНСТРОЯ КРАЯ"</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>589 024,80 руб.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413680/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>100233113120000110</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Оказание услуг по изготовлению технического плана, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>01:35:13</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>УМВД РОССИИ ПО ТУЛЬСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>63 333,33 руб.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417975/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>100133343120000065</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Организация и планирование деятельности казенного учреждения, 1 шт</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>01:09:52</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ФГКУ КОМБИНАТ "ПЕРВОМАЙСКИЙ" РОСРЕЗЕРВА</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15 600,00 руб.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417783/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>100193112120000026</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Услуги по разработке технического заключения о состоянии основных несущих конструкций и безопасности по ранее выполненной перепланировке и Проекта перепланировки нежилых помещений нежилых зданий</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>01:08:04</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ФКУЗ "ЦП № 3 МВД РОССИИ"</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>168 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417781/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>100204586120000055</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Изготовление технических паспортов и технических планов объектов недвижимости, 5 шт</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>00:27:26</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417440/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>100136842120000143</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Планы эвакуации, 5 шт</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>00:19:21</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>УФНС РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>13 750,00 руб.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417389/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>100130715120000208</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Знаки и планы эвакуации.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>00:17:35</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ФГКУ КОМБИНАТ "ЭНЕРГИЯ" РОСРЕЗЕРВА</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>131 100,00 руб.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417379/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>100009338120000057</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Изготовление планов эвакуации</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>00:17:27</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ВОЙСКОВАЯ ЧАСТЬ 3526</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>10 149,98 руб.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417375/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>100281755120001335</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Выполнение кадастровых работ по подготовке межевого плана по уточнению границ и площади земельного участка с кадастровым номером 70:21:0200009:86, находящегося в постоянном (бессрочном) пользовании Управления Федерального казначейства по Томской области, расположенного по адресу: Томская область, г. Томск, пр. Фрунзе, д. 22</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>00:11:20</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>МЕЖРЕГИОНАЛЬНЫЙ ФИЛИАЛ ФКУ "ЦОКР" В Г. НОВОСИБИРСКЕ</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417302/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>100258656120000034</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Охрана труда для работников 3 группы по безопасности работ на высоте, 5 шт</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>01:46:11</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО КАРАЧАЕВО-ЧЕРКЕССКОЙ РЕСПУБЛИКЕ</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>22 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418091/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>100032348120000084</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Профессиональная переподготовка по экологической безопасности, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>01:16:05</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>УФСИН РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>11 800,00 руб.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417849/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>100240149120000063</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ооказание услуг по изготовлению SSL-сертификата для поддержания уровня безопасности при предоставлении информации на порталах Федеральной службы по экологическому, технологическому и атомному надзору в информационно-коммуникационной сети Интернет</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>23:15:12</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>РОСТЕХНАДЗОР</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>14 200,00 руб.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417842/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>100276416120000047</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Техническое обслуживание и текущий ремонт системы контроля и управления доступом , 1шт</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>01:11:10</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>МУ МВД РОССИИ "СЕРПУХОВСКОЕ"</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>65 065,50 руб.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417796/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>100134872120000041</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>оказать образовательные услуги для нужд ФГКУ комбинат «Слава» Росрезерва</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>00:57:48</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ФГКУ КОМБИНАТ "СЛАВА" РОСРЕЗЕРВА</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>4 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417700/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>100026052120000040</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Промышленная безопасность, 2шт</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>00:25:27</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ФКУ СИЗО-11 УФСИН РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>40 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417442/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>100100824120000002</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Обеспечение безопасности дорожного движения, 1 шт</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>01:47:25</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-28 УФСИН РОССИИ ПО ВОЛГОГРАДСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1 350,00 руб.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415563/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>100010726120000085</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Обучение по экологической безопасности, 2 усл. ед</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>01:16:02</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-4 УФСИН РОССИИ ПО МАГАДАНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>7 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413591/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>100050434120000103</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Оказание услуг по изготовлению знаков пожарной безопасности</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>23:12:23</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИИ ПО САРАТОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>4 440,00 руб.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1412761/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>100174121120000029</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>МОНТАЖ ПОЖАРНОЙ СИГНАЛИЗАЦИИ И ОХРАНЫ, 1шт</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>21:53:58</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ЗАПАДНОЕ ЛУ МВД РОССИИ НА ТРАНСПОРТЕ</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>64 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417210/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>100281085120000094</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Выполнение работ по монтажу кнопок тревожной сигнализации на объектах УМВД России по Омской области</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>00:57:10</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ФКУ "ЦХИСО УМВД РОССИИ ПО ОМСКОЙ ОБЛАСТИ"</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>137 645,85 руб.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415413/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>100246259120000053</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Услуги по мониторингу автоматической пожарной сигнализации</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>23:15:09</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ФКУ КП-12 УФСИН РОССИИ ПО ПЕНЗЕНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1412959/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>100169694120000030</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>монтаж пожарной сигнализации, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>01:11:07</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>МОМВД РОССИИ "КИРСАНОВСКИЙ"</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1411392/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>100042343120000116</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Услуги на обучение по курсу «Охрана труда для руководителей и специалистов», 94 шт</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>01:47:07</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО ЯРОСЛАВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>12 945,00 руб.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418090/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>100281257120000649</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Охрана труда для руководителей и специалистов, 4 чел</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>01:35:10</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>МЕЖРЕГИОНАЛЬНЫЙ ФИЛИАЛ ФКУ "ЦОКР" В Г.ВЛАДИМИРЕ</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>12 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417989/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>100213807120000072</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>обучение по охране труда, 1 шт</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>01:27:18</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-17 УФСИН РОССИИ ПО МУРМАНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>855,94 руб.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417937/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>100130914120000130</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Обучение и проверка знаний по направлению «Обучение охране труда руководителей и специалистов», 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>01:26:29</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ФГКУ КОМБИНАТ "ПРОЖЕКТОР" РОСРЕЗЕРВА</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>3 820,00 руб.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417928/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>100032348120000085</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Профессиональная переподготовка "Охрана Труда", 20 чел/год</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>01:22:49</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>УФСИН РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417901/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>100130914120000129</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Обучение по программе "Охрана труда", 2 шт</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>01:15:06</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ФГКУ КОМБИНАТ "ПРОЖЕКТОР" РОСРЕЗЕРВА</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>8 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417834/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>100312749120000050</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>обучение охрана труда, 1 шт</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>00:22:26</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ РОСРЕЕСТРА ПО РЕСПУБЛИКЕ КОМИ</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417406/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>100188788120000051</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Природоохранная документация, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>22:15:29</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ФКУ СИЗО-2 УФСИН РОССИИ ПО КУРГАНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>7 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417354/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>100192006120000030</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Профессиональная переподготовка "Охрана труда", 1 чел</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>00:09:45</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>УФСИН РОССИИ ПО УЛЬЯНОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>7 917,00 руб.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417300/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>100042478120000049</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Обучение по охране труда, 1 шт</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>22:06:59</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>УМВД РОССИИ ПО КУРГАНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417279/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>100273248120000106</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Охрана труда для руководителей и специалистов, 1 шт</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>15:40:19</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>МРУ РОСФИНМОНИТОРИНГА ПО УФО</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1 900,00 руб.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414283/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>100145200120000024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Услуги</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>13:08:17</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ФКП ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ № 323</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>618,00 руб.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413882/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>100141802120000130</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Обучение пожарной безопасности, 7 шт</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>01:59:16</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ФКУТ УФСИН РОССИИ ПО САРАТОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>8 071,00 руб.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418189/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>100267786120000059</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Поставка медицинских расходных материалов (системы инфузионные)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>01:54:15</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ФКУЗ "МСЧ МВД РОССИИ ПО РЕСПУБЛИКЕ КРЫМ"</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80 437,50 руб.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418157/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>100308956120000124</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Услуги по сопровождению информационно-справочных Систем семейства Консультант Плюс, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>01:44:54</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>599 389,00 руб.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418076/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>100024196120000047</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Поставка экземпляра(ов) Системы КонсультантПлюс, 15 шт</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01:41:43</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ФКУ "ЦВР МВД РОССИИ, Г. ВОРОНЕЖ"</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>32 234,73 руб.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418045/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>100228404120000035</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Капитальный ремонт участка системы отопления, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01:41:12</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ФКУ СИЗО-7 УФСИН РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>100 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418044/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>100202513120000051</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Расходный материал для системы водоснабжения</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>01:22:31</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО РЕСПУБЛИКЕ АДЫГЕЯ</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>16 120,00 руб.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417900/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>200744497120000675</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Сплит-системы с монтажом, согласно спецификации к договору</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>23:12:26</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ОАО "ВЗРТО"</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80 600,00 руб.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417814/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>100148436120000041</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Услуги по техническому обслуживанию системы АТС и телефонизации в помещениях, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>23:10:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ РОСПОТРЕБНАДЗОРА ПО РЕСПУБЛИКЕ ДАГЕСТАН</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>70 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417798/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>100118598120000042</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Оказание услуг по обучению на курсах повышения квалификации по дополнительной профессиональной программе «Контрактная система в сфере закупок товаров, работ, услуг для обеспечения государственных нужд» (108 часов) государственных гражданских служащих Территориального органа Федеральной службы государственной статистики по Нижегородской области (Нижегородстат) по очно-заочной форме</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>01:07:50</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>НИЖЕГОРОДСТАТ</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>9 828,00 руб.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417776/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100292922120000094</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Противодействие коррупции в системе Росрезерва, 1 шт</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01:02:52</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ФГКУ КОМБИНАТ "МЕХАНИЗАЦИЯ" РОСРЕЗЕРВА</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>650,00 руб.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417738/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>100316430120000030</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ОКАЗАНИЕ УСЛУГ ПО СОПРОВОЖДЕНИЮ И ОБСЛУЖИВАНИЮ ИНФОРМАЦИОННЫХ СИСТЕМ «1С» + 1С: ИТС МЕДИЦНА, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01:44:49</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ РОСПОТРЕБНАДЗОРА ПО РЕСПУБЛИКЕ СЕВЕРНАЯ ОСЕТИЯ-АЛАНИЯ</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>132 350,00 руб.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417633/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>100150391120000022</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Техническое обслуживание тепловых пунктов и систем отопления, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>01:42:49</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ОМВД РОССИИ ПО ГОРОДСКОМУ ОКРУГУ ПРОТВИНО</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>100 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417540/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>100007758120000015</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Материалы для систем внутренней канализации в рамках капитального ремонта</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>01:41:07</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ФКУ СИЗО-1 УФСИН РОССИИ ПО САМАРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>18 300,00 руб.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417513/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>100116781120000040</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Оказание услуг по информационному сопровождению справочно-правовой системы</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>01:21:58</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИИ ПО РОСТОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>152 200,00 руб.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417376/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>100261985120000036</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>промывка и опрессовка системы отопления, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>23:12:33</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>МУ МВД РОССИИ "БАЛАКОВСКОЕ" САРАТОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>6 257,00 руб.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417273/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>100280133120000054</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Поставка и установка сплит-систем кондиционирования для нужд филиала Федерального казенного учреждения «Центр по обеспечению деятельности Казначейства России» по Калининградской области</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>00:03:17</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>ФИЛИАЛ ФКУ "ЦОКР" ПО КАЛИНИНГРАДСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>84 600,00 руб.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417257/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>100074699120000849</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Поставка гладильной системы LAURASTAR S</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>01:59:12</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>СОК ФСО РОССИИ</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>284 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1416196/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>100279100120000028</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Работы по монтажу водопроводных и канализационных систем, 1 шт</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>01:08:47</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>ОМВД РОССИИ ПО ВЕЛИКОУСТЮГСКОМУ РАЙОНУ</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>7 906,46 руб.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1416168/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>100299081120000025</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Встраиваемая акустическая система</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>01:54:11</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>ФКУ "ЦОУМТС МВД РОССИИ"</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>41 514,00 руб.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415974/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>100301701120000098</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Оказание услуг по предоставлению доступа и абонентского обслуживания системы «Контур-Экстерн» для сдачи отчётности в электронном виде</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>00:59:01</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>ЦЕНТР СПЕЦИАЛЬНОЙ СВЯЗИ И ИНФОРМАЦИИ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ОХРАНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ В КРАСНОЯРСКОМ КРАЕ</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>7 480,00 руб.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1415562/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>100050434120000107</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Оказание информационных услуг с использованием экземпляров систем Консультант Плюс на основе специального лицензионного программного обеспечения для нужд территориальных органов ГУ МВД России по Саратовской области</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>01:42:46</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИИ ПО САРАТОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>240 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414878/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>100300520120000008</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Контрактная система в сфере закупок товаров, работ, услуг для обеспечения гос. и мун. нужд, 4 шт</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>01:24:08</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>ОТДЕЛЕНИЕ МВД РОССИИ ПО ЧУЛЫМСКОМУ РАЙОНУ</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>36 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414190/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>100298583120000109</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Противодействие коррупции в системе Росрезерва, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>01:34:16</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>ФГКУ КОМБИНАТ "МАРС" РОСРЕЗЕРВА</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>10 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414048/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>100003491120000185</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Администрирование защиты автоматизированных/ информационных систем от НСД, 1 шт</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>23:12:30</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>ГЦИТ ВОЙСК НАЦИОНАЛЬНОЙ ГВАРДИИ</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>46 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1412955/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>100829400120000042</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Костюм Защитный Л-1, 2 шт</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>01:42:54</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>МИ ФНС РОССИИ ПО ЦОД № 3</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>10 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418063/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>100087509120000152</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Закупка хозяйственных расходных материалов</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>01:22:02</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>ФКУ "ЦХИСО МВД ПО РД"</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>136 031,00 руб.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417897/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>200814045120000661</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Одежда и обувь</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>23:10:21</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>АО "НПО "МИКРОГЕН"</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>280 004,30 руб.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417801/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>100303439120000225</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Поставка средств индивидуальной защиты.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>01:03:24</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>ЦЭКТУ</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>56 164,53 руб.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417729/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>100292922120000092</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Средства индивидуальной защиты прочие, 1 шт</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>00:59:05</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>ФГКУ КОМБИНАТ "МЕХАНИЗАЦИЯ" РОСРЕЗЕРВА</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>190 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417711/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>100019954120000022</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Средства индивидуальной защиты (СИЗ), 1 шт</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>00:57:14</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>ФКУ "ГБ МСЭ ПО Г. САНКТ-ПЕТЕРБУРГУ" МИНТРУДА РОССИИ</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>14 900,00 руб.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417697/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>100220910120000020</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Средство защиты информации</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>00:52:15</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>ФКУ "ЦЕНТР МЕТРОЛОГИИ" МВД РОССИИ</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>70 399,89 руб.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417652/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>100286100120000070</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Маска защитная, 660 шт</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>01:41:38</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>УДМУРТСТАТ</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>7 100,00 руб.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417525/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>100240154120000046</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Арт. 1194099 Маска защитная многоразовая текстильная черная (12 штук в упаковке), 40 шт</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>01:34:19</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>РОСАРХИВ</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>23 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417508/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>100293002120000199</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Комбинезон защитный многоразовый</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>01:22:27</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>ФКУ ЖКУ УФСИН РОССИИ ПО ОРЛОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>36 450,00 руб.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417507/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>100087194120000031</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Обучение по гражданской обороне и защите от чрезвычайных ситуаций, 3 усл. ед</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>01:18:24</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>ФКУ СИЗО-1 УФСИН РОССИИ ПО ВЛАДИМИРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2 040,00 руб.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417312/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>100171312120000073</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Приобретение средств индивидуальной защиты для проведения Всероссийской переписи населения</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>23:09:56</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>ТЮМЕНЬСТАТ</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>25 692,48 руб.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417065/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>100015802120000051</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Средства защиты информации, 1 шт</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>01:11:17</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ МИНЮСТА РОССИИ ПО ЛЕНИНГРАДСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>950,00 руб.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1416385/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>100024101120000071</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Поставка средств защиты и профилактики коронавирусной инфекции</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>15:04:25</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ РОСКОМНАДЗОРА ПО ТОМСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>12 754,00 руб.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414175/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>100303150120000054</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>средства индивидуальной защиты и дезинфицирующие материалы</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>01:09:23</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ РОСКОМНАДЗОРА ПО ЯРОСЛАВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>18 400,00 руб.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413115/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>100003620120000056</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Право использования средств криптографической защиты информации "КриптоАРМ" версии 5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>01:21:55</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>УМВД РОССИИ ПО РЯЗАНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>15 265,00 руб.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413002/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>100273907120000020</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>огнезащитной обработки (пропитки) деревянных строительных конструкций чердачных помещений, 1 усл. ед</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>01:18:21</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>ОМВД РОССИИ ПО КОНАКОВСКОМУ РАЙОНУ</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>15 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1412973/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>100189039120000091</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ОБУЧЕНИЕ ПОЖАРНО-ТЕХНИЧЕСКОМУ МИНИМУМУ, 4 усл. ед</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>01:47:29</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-5 УФСИН РОССИИ ПО КИРОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1 550,00 руб.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418101/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>100281257120000647</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Пожарно-технический минимум, 4 шт</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>01:24:12</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>МЕЖРЕГИОНАЛЬНЫЙ ФИЛИАЛ ФКУ "ЦОКР" В Г.ВЛАДИМИРЕ</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>12 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417909/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>100174951120000134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Противопожарные услуги (мероприятия) по перезарядке огнетушителей ОП-3, 8 шт</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>00:48:31</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ РОСПОТРЕБНАДЗОРА ПО СТАВРОПОЛЬСКОМУ КРАЮ</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2 160,00 руб.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417623/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>100187729120000085</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Обучение по программе "Пожарно-технический минимум"</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>00:01:34</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ФГКУ КОМБИНАТ "ЗЕНИТ" РОСРЕЗЕРВА</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>12 460,00 руб.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417250/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>100144083120000195</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>закупка противопожарных дверей, 4 шт</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>21:32:41</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>ВОЙСКОВАЯ ЧАСТЬ 66631</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>71 203,00 руб.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417079/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>100303347120000106</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Пожарно-технический минимум, 2 шт</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>01:46:07</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>ЦЕНТР СПЕЦИАЛЬНОЙ СВЯЗИ И ИНФОРМАЦИИ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ОХРАНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ В ЧЕЛЯБИНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>460,00 руб.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414991/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>100249788120000047</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Хозяйственные товары</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>01:59:12</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>ОТДЕЛ ГФС РОССИИ В Г. САРАТОВЕ</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>4 700,00 руб.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418188/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>100048822120000053</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Поставка хозяйственных товаров</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>23:40:34</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ ГФС РОССИИ ПО ПРИВОЛЖСКОМУ ФЕДЕРАЛЬНОМУ ОКРУГУ</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>19 581,00 руб.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1418027/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>100263325120000124</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Хозяйственные товары</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>01:15:45</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>УФНС РОССИИ ПО РЯЗАНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>294 844,30 руб.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417846/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>100059458120000058</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Товары для красоты и здоровья, Хозяйственные товары, Товары для дома и дачи</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>23:13:56</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>МЕЖМУНИЦИПАЛЬНЫЙ ОТДЕЛ МВД РОССИИ "КУНГУРСКИЙ"</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>3 892,00 руб.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417813/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>100150945120000013</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Медицинские изделия</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>00:55:09</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>МЕЖРАЙОННАЯ ИФНС РОССИИ № 13 ПО ВЛАДИМИРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>35 286,80 руб.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417673/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>100080640120000098</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Товары для красоты и здоровья, Хозяйственные товары, Строительство и ремонт, Товары для дома и дачи</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>22:51:45</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО САРАТОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>80 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417654/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>100259499120000059</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Хозяйственные товары в соответствии со Спецификацией в проекте договора</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>00:45:24</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ РОСПОТРЕБНАДЗОРА ПО ВЛАДИМИРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>10 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417596/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>100312749120000051</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Закупка дизинфицирующего средства (Мирацид), 30 шт</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>00:29:44</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ РОСРЕЕСТРА ПО РЕСПУБЛИКЕ КОМИ</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>15 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417463/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>100088831120000014</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Товары для красоты и здоровья, Хозяйственные товары</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>00:28:15</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>ОМВД РОССИИ ПО МОРГАУШСКОМУ РАЙОНУ</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1 500,00 руб.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417457/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>100177162120000074</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Поставка дезинфицирующих средств</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>00:22:22</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>УМВД РОССИИ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>20 244,84 руб.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1417407/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>100149349120000197</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Дез средство в комплекте с индикаторными полосками</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>20:04:26</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>УФСИН РОССИИ ПО ВЛАДИМИРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>349 179,92 руб.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1416404/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>100149349120000193</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Средство дезинфицирующеев комплекте с тест полосками</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>19:50:00</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>УФСИН РОССИИ ПО ВЛАДИМИРСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>350 476,04 руб.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1416268/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>100279912120000053</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Товары для красоты и здоровья, Хозяйственные товары</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>17:34:05</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>ФГКУ "СЗРПСО МЧС РОССИИ"</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>20 000,00 руб.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414969/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>100166511120000057</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Дезинфицирующие средства</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>16:05:59</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>УФСИН РОССИИ ПО САХАЛИНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>316 814,00 руб.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414394/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>100042086120000092</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Приобретение хозяйственных товаров</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>15:01:51</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>УФНС РОССИИ ПО КЕМЕРОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>260 512,57 руб.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1414163/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>100186760120000110</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Хозяйственные товары, Одежда и обувь</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>10:38:35</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ФГКУ "СПЕЦИАЛЬНОЕ УПРАВЛЕНИЕ ФПС № 24 МЧС РОССИИ"</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>40 250,00 руб.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413634/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>100243434120000273</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Моющие средства</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>02:02:39</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ МЧС РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>474 747,26 руб.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1413322/order-info</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>100100202120000084</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Приобретение инструмента и комплектующих</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>20:04:35</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>ФКУ ИК-4 УФСИН РОССИИ ПО КУРГАНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>67 694,00 руб.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://agregatoreat.ru/purchase/1416401/order-info</t>
         </is>
       </c>
     </row>
